--- a/RNASeq/5_analysis_DESeq2/data_l2fc_p_goi_counts_231219.xlsx
+++ b/RNASeq/5_analysis_DESeq2/data_l2fc_p_goi_counts_231219.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,19 +562,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>221.828</v>
+        <v>221.828420478802</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.045</v>
+        <v>-0.0451539186994432</v>
       </c>
       <c r="E2" t="n">
-        <v>0.073</v>
+        <v>0.0734751595909884</v>
       </c>
       <c r="F2" t="n">
-        <v>0.159</v>
+        <v>0.159408730460989</v>
       </c>
       <c r="G2" t="n">
-        <v>0.653</v>
+        <v>0.653087455529075</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -596,1024 +596,1184 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.185</v>
+        <v>0.1850286580656453</v>
       </c>
       <c r="M2" t="n">
-        <v>8.026999999999999</v>
+        <v>8.026763618960175</v>
       </c>
       <c r="N2" t="n">
-        <v>7.792</v>
+        <v>7.792363432817059</v>
       </c>
       <c r="O2" t="n">
-        <v>7.982</v>
+        <v>7.981970948518157</v>
       </c>
       <c r="P2" t="n">
-        <v>7.97</v>
+        <v>7.96966780993513</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.682</v>
+        <v>7.682293752245381</v>
       </c>
       <c r="R2" t="n">
-        <v>7.701</v>
+        <v>7.700625136214493</v>
       </c>
       <c r="S2" t="n">
-        <v>7.97</v>
+        <v>7.969944636439239</v>
       </c>
       <c r="T2" t="n">
-        <v>7.688</v>
+        <v>7.687577567888559</v>
       </c>
       <c r="U2" t="n">
-        <v>7.723</v>
+        <v>7.723459792757847</v>
       </c>
       <c r="V2" t="n">
-        <v>7.473</v>
+        <v>7.472770482992488</v>
       </c>
       <c r="W2" t="n">
-        <v>7.606</v>
+        <v>7.606272881749734</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Cacna1b</t>
+          <t>Cacna1e</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENSMUSG00000004113</t>
+          <t>ENSMUSG00000004110</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>64.65300000000001</v>
+        <v>11.1694216548974</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002</v>
+        <v>-7.17377962642619e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.064</v>
+        <v>0.06478796934850881</v>
       </c>
       <c r="F3" t="n">
-        <v>0.876</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.985</v>
-      </c>
+        <v>0.990796790510289</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cacna1b</t>
+          <t>Cacna1e</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>12287</v>
+        <v>12290</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>9.9e-01</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Cacna1b
-p=9.9e-01</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0.007</v>
-      </c>
+          <t>Cacna1e
+p=nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>5.454</v>
+        <v>3.142183081415706</v>
       </c>
       <c r="N3" t="n">
-        <v>4.325</v>
+        <v>1.758538882979955</v>
       </c>
       <c r="O3" t="n">
-        <v>6.941</v>
+        <v>2.886177602685138</v>
       </c>
       <c r="P3" t="n">
-        <v>5.301</v>
+        <v>3.319293729908829</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.235</v>
+        <v>4.752339097385916</v>
       </c>
       <c r="R3" t="n">
-        <v>6.309</v>
+        <v>3.447932554017676</v>
       </c>
       <c r="S3" t="n">
-        <v>6.324</v>
+        <v>3.729716656668957</v>
       </c>
       <c r="T3" t="n">
-        <v>5.881</v>
+        <v>2.504493587189563</v>
       </c>
       <c r="U3" t="n">
-        <v>6.152</v>
+        <v>3.109757440273651</v>
       </c>
       <c r="V3" t="n">
-        <v>5.626</v>
+        <v>2.745639996148038</v>
       </c>
       <c r="W3" t="n">
-        <v>6.146</v>
+        <v>4.401314564568449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Cacna2d2</t>
+          <t>Cacna1b</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENSMUSG00000010066</t>
+          <t>ENSMUSG00000004113</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>65.777</v>
+        <v>64.6533927012046</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006</v>
+        <v>0.0016991384174586</v>
       </c>
       <c r="E4" t="n">
-        <v>0.064</v>
+        <v>0.0643319420596592</v>
       </c>
       <c r="F4" t="n">
-        <v>0.644</v>
+        <v>0.876377460704732</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.9850030225099</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cacna2d2</t>
+          <t>Cacna1b</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>56808</v>
+        <v>12287</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>9.4e-01</t>
+          <t>9.9e-01</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Cacna2d2
-p=9.4e-01</t>
+          <t>Cacna1b
+p=9.9e-01</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.028</v>
+        <v>0.006562436855325215</v>
       </c>
       <c r="M4" t="n">
-        <v>5.892</v>
+        <v>5.453922273740965</v>
       </c>
       <c r="N4" t="n">
-        <v>5.755</v>
+        <v>4.325340223926935</v>
       </c>
       <c r="O4" t="n">
-        <v>6.527</v>
+        <v>6.9413621692634</v>
       </c>
       <c r="P4" t="n">
-        <v>5.497</v>
+        <v>5.301436985507881</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.325</v>
+        <v>6.234723757838368</v>
       </c>
       <c r="R4" t="n">
-        <v>5.51</v>
+        <v>6.30917912534415</v>
       </c>
       <c r="S4" t="n">
-        <v>5.786</v>
+        <v>6.324035700276811</v>
       </c>
       <c r="T4" t="n">
-        <v>6.889</v>
+        <v>5.881044652674546</v>
       </c>
       <c r="U4" t="n">
-        <v>6.009</v>
+        <v>6.151779250695996</v>
       </c>
       <c r="V4" t="n">
-        <v>5.73</v>
+        <v>5.625804958480663</v>
       </c>
       <c r="W4" t="n">
-        <v>5.805</v>
+        <v>6.146415475828571</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cacna1d</t>
+          <t>Cacna2d2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENSMUSG00000015968</t>
+          <t>ENSMUSG00000010066</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>358.571</v>
+        <v>65.7765372471665</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003</v>
+        <v>0.0060664263603634</v>
       </c>
       <c r="E5" t="n">
-        <v>0.064</v>
+        <v>0.06394023228932059</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.643935011057075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.976</v>
+        <v>0.93802885142534</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cacna1d</t>
+          <t>Cacna2d2</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>12289</v>
+        <v>56808</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>9.8e-01</t>
+          <t>9.4e-01</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Cacna1d
-p=9.8e-01</t>
+          <t>Cacna2d2
+p=9.4e-01</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.011</v>
+        <v>0.02778380360161546</v>
       </c>
       <c r="M5" t="n">
-        <v>7.661</v>
+        <v>5.891798757412343</v>
       </c>
       <c r="N5" t="n">
-        <v>7.457</v>
+        <v>5.754671272043841</v>
       </c>
       <c r="O5" t="n">
-        <v>8.837999999999999</v>
+        <v>6.527340295436293</v>
       </c>
       <c r="P5" t="n">
-        <v>7.912</v>
+        <v>5.496780266048082</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.183</v>
+        <v>6.325235629022642</v>
       </c>
       <c r="R5" t="n">
-        <v>8.805</v>
+        <v>5.510244560743586</v>
       </c>
       <c r="S5" t="n">
-        <v>8.808999999999999</v>
+        <v>5.785661440834156</v>
       </c>
       <c r="T5" t="n">
-        <v>8.457000000000001</v>
+        <v>6.888594207848529</v>
       </c>
       <c r="U5" t="n">
-        <v>8.786</v>
+        <v>6.009000264487006</v>
       </c>
       <c r="V5" t="n">
-        <v>8.353</v>
+        <v>5.729574234570254</v>
       </c>
       <c r="W5" t="n">
-        <v>8.079000000000001</v>
+        <v>5.804903448857563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cacnb4</t>
+          <t>Cacna1d</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENSMUSG00000017412</t>
+          <t>ENSMUSG00000015968</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17.786</v>
+        <v>358.570892191288</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.008</v>
+        <v>0.0031632739975509</v>
       </c>
       <c r="E6" t="n">
-        <v>0.066</v>
+        <v>0.0638565209647592</v>
       </c>
       <c r="F6" t="n">
-        <v>0.166</v>
+        <v>0.8175124453189641</v>
       </c>
       <c r="G6" t="n">
-        <v>0.663</v>
+        <v>0.975517427992439</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cacnb4</t>
+          <t>Cacna1d</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>12298</v>
+        <v>12289</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>6.6e-01</t>
+          <t>9.8e-01</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Cacnb4
-p=6.6e-01</t>
+          <t>Cacna1d
+p=9.8e-01</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.179</v>
+        <v>0.01076496736291671</v>
       </c>
       <c r="M6" t="n">
-        <v>1.87</v>
+        <v>7.661355463646784</v>
       </c>
       <c r="N6" t="n">
-        <v>2.293</v>
+        <v>7.456913816025826</v>
       </c>
       <c r="O6" t="n">
-        <v>5.99</v>
+        <v>8.83800063024723</v>
       </c>
       <c r="P6" t="n">
-        <v>3.604</v>
+        <v>7.91206777452151</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.751</v>
+        <v>9.183485693979353</v>
       </c>
       <c r="R6" t="n">
-        <v>5.299</v>
+        <v>8.805050916641946</v>
       </c>
       <c r="S6" t="n">
-        <v>4.688</v>
+        <v>8.809264598978826</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>8.457153314387885</v>
       </c>
       <c r="U6" t="n">
-        <v>3.256</v>
+        <v>8.786163319228191</v>
       </c>
       <c r="V6" t="n">
-        <v>3.365</v>
+        <v>8.353369003235791</v>
       </c>
       <c r="W6" t="n">
-        <v>2.627</v>
+        <v>8.078868327562294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Cacna1g</t>
+          <t>Cacnb4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENSMUSG00000020866</t>
+          <t>ENSMUSG00000017412</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25.767</v>
+        <v>17.7863098655008</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006</v>
+        <v>-0.0078752779650413</v>
       </c>
       <c r="E7" t="n">
-        <v>0.065</v>
+        <v>0.065689272463324</v>
       </c>
       <c r="F7" t="n">
-        <v>0.492</v>
+        <v>0.166061394160824</v>
       </c>
       <c r="G7" t="n">
-        <v>0.887</v>
+        <v>0.662931725545103</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cacna1g</t>
+          <t>Cacnb4</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>12291</v>
+        <v>12298</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>8.9e-01</t>
+          <t>6.6e-01</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Cacna1g
-p=8.9e-01</t>
+          <t>Cacnb4
+p=6.6e-01</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0.052</v>
+        <v>0.1785311967020655</v>
       </c>
       <c r="M7" t="n">
-        <v>5.149</v>
+        <v>1.869924729015344</v>
       </c>
       <c r="N7" t="n">
-        <v>4.435</v>
+        <v>2.293039039175154</v>
       </c>
       <c r="O7" t="n">
-        <v>4.587</v>
+        <v>5.99020555941915</v>
       </c>
       <c r="P7" t="n">
-        <v>3.943</v>
+        <v>3.603844634831561</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.123</v>
+        <v>3.751351745928219</v>
       </c>
       <c r="R7" t="n">
-        <v>4.068</v>
+        <v>5.298577338169953</v>
       </c>
       <c r="S7" t="n">
-        <v>6.414</v>
+        <v>4.688349402032698</v>
       </c>
       <c r="T7" t="n">
-        <v>4.328</v>
+        <v>2.750396196128454</v>
       </c>
       <c r="U7" t="n">
-        <v>3.846</v>
+        <v>3.255941936402833</v>
       </c>
       <c r="V7" t="n">
-        <v>4.303</v>
+        <v>3.364734826648204</v>
       </c>
       <c r="W7" t="n">
-        <v>3.723</v>
+        <v>2.627015598600209</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cacnb1</t>
+          <t>Cacna1g</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENSMUSG00000020882</t>
+          <t>ENSMUSG00000020866</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>78.444</v>
+        <v>25.7672367397576</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.012</v>
+        <v>0.0058357652808202</v>
       </c>
       <c r="E8" t="n">
-        <v>0.064</v>
+        <v>0.06502588885614149</v>
       </c>
       <c r="F8" t="n">
-        <v>0.42</v>
+        <v>0.491884029013724</v>
       </c>
       <c r="G8" t="n">
-        <v>0.855</v>
+        <v>0.886577486694559</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cacnb1</t>
+          <t>Cacna1g</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12295</v>
+        <v>12291</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>8.5e-01</t>
+          <t>8.9e-01</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Cacnb1
-p=8.5e-01</t>
+          <t>Cacna1g
+p=8.9e-01</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.068</v>
+        <v>0.05228330115360583</v>
       </c>
       <c r="M8" t="n">
-        <v>6.223</v>
+        <v>5.148865697214214</v>
       </c>
       <c r="N8" t="n">
-        <v>6.345</v>
+        <v>4.435306531901816</v>
       </c>
       <c r="O8" t="n">
-        <v>6.747</v>
+        <v>4.587036935162105</v>
       </c>
       <c r="P8" t="n">
-        <v>6.134</v>
+        <v>3.943388582131807</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.199</v>
+        <v>4.123271422158677</v>
       </c>
       <c r="R8" t="n">
-        <v>6.433</v>
+        <v>4.068077353249819</v>
       </c>
       <c r="S8" t="n">
-        <v>6.148</v>
+        <v>6.414472741176051</v>
       </c>
       <c r="T8" t="n">
-        <v>5.622</v>
+        <v>4.327925032654106</v>
       </c>
       <c r="U8" t="n">
-        <v>6.71</v>
+        <v>3.846356720270274</v>
       </c>
       <c r="V8" t="n">
-        <v>6.173</v>
+        <v>4.302669757647752</v>
       </c>
       <c r="W8" t="n">
-        <v>6.178</v>
+        <v>3.723040446148544</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Cacna1i</t>
+          <t>Cacnb1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022416</t>
+          <t>ENSMUSG00000020882</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25.396</v>
+        <v>78.4437220331201</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005</v>
+        <v>-0.0121562182832141</v>
       </c>
       <c r="E9" t="n">
-        <v>0.065</v>
+        <v>0.0637138761371287</v>
       </c>
       <c r="F9" t="n">
-        <v>0.593</v>
+        <v>0.420446727915028</v>
       </c>
       <c r="G9" t="n">
-        <v>0.92</v>
+        <v>0.854827340201159</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cacna1i</t>
+          <t>Cacnb1</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>239556</v>
+        <v>12295</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>9.2e-01</t>
+          <t>8.5e-01</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Cacna1i
-p=9.2e-01</t>
+          <t>Cacnb1
+p=8.5e-01</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.036</v>
+        <v>0.06812159611417383</v>
       </c>
       <c r="M9" t="n">
-        <v>3.497</v>
+        <v>6.222810894775631</v>
       </c>
       <c r="N9" t="n">
-        <v>4.96</v>
+        <v>6.345411728439211</v>
       </c>
       <c r="O9" t="n">
-        <v>4.608</v>
+        <v>6.746920960678191</v>
       </c>
       <c r="P9" t="n">
-        <v>4.801</v>
+        <v>6.133560320931626</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.868</v>
+        <v>6.198663225448833</v>
       </c>
       <c r="R9" t="n">
-        <v>3.949</v>
+        <v>6.432509612580692</v>
       </c>
       <c r="S9" t="n">
-        <v>5.303</v>
+        <v>6.14793272007387</v>
       </c>
       <c r="T9" t="n">
-        <v>5.711</v>
+        <v>5.621686157395902</v>
       </c>
       <c r="U9" t="n">
-        <v>4.136</v>
+        <v>6.710360114091158</v>
       </c>
       <c r="V9" t="n">
-        <v>4.223</v>
+        <v>6.173434748097302</v>
       </c>
       <c r="W9" t="n">
-        <v>3.575</v>
+        <v>6.177991682607152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cacna1h</t>
+          <t>Cacna1i</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENSMUSG00000024112</t>
+          <t>ENSMUSG00000022416</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2327.227</v>
+        <v>25.3961039911594</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.348</v>
+        <v>0.0052322371028311</v>
       </c>
       <c r="E10" t="n">
-        <v>0.263</v>
+        <v>0.0647720674115579</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.592876281026411</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.919850219453233</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cacna1h</t>
+          <t>Cacna1i</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>58226</v>
+        <v>239556</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3.9e-05</t>
+          <t>9.2e-01</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Cacna1h
-p=3.9e-05</t>
+          <t>Cacna1i
+p=9.2e-01</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4.414</v>
+        <v>0.0362828836986518</v>
       </c>
       <c r="M10" t="n">
-        <v>11.621</v>
+        <v>3.496716996840574</v>
       </c>
       <c r="N10" t="n">
-        <v>11.532</v>
+        <v>4.960113542586523</v>
       </c>
       <c r="O10" t="n">
-        <v>12.23</v>
+        <v>4.607966208937901</v>
       </c>
       <c r="P10" t="n">
-        <v>11.483</v>
+        <v>4.801077702994183</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.855</v>
+        <v>4.867988054259198</v>
       </c>
       <c r="R10" t="n">
-        <v>11.953</v>
+        <v>3.948582323482484</v>
       </c>
       <c r="S10" t="n">
-        <v>10.84</v>
+        <v>5.302695609061806</v>
       </c>
       <c r="T10" t="n">
-        <v>9.835000000000001</v>
+        <v>5.711330864911362</v>
       </c>
       <c r="U10" t="n">
-        <v>10.426</v>
+        <v>4.136152458206609</v>
       </c>
       <c r="V10" t="n">
-        <v>9.641999999999999</v>
+        <v>4.222541973942802</v>
       </c>
       <c r="W10" t="n">
-        <v>10.081</v>
+        <v>3.575244066736923</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Cacna1a</t>
+          <t>Cacna1h</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENSMUSG00000034656</t>
+          <t>ENSMUSG00000024112</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>62.238</v>
+        <v>2327.22691006231</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.014</v>
+        <v>-1.34824966000856</v>
       </c>
       <c r="E11" t="n">
-        <v>0.067</v>
+        <v>0.262770352341719</v>
       </c>
       <c r="F11" t="n">
-        <v>0.164</v>
+        <v>1.09051873821698e-08</v>
       </c>
       <c r="G11" t="n">
-        <v>0.66</v>
+        <v>3.85171218338237e-05</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cacna1a</t>
+          <t>Cacna1h</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>12286</v>
+        <v>58226</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>6.6e-01</t>
+          <t>3.9e-05</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Cacna1a
-p=6.6e-01</t>
+          <t>Cacna1h
+p=3.9e-05</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>0.18</v>
+        <v>4.414346172699862</v>
       </c>
       <c r="M11" t="n">
-        <v>5.429</v>
+        <v>11.62059756323844</v>
       </c>
       <c r="N11" t="n">
-        <v>6.851</v>
+        <v>11.5320842487636</v>
       </c>
       <c r="O11" t="n">
-        <v>5.52</v>
+        <v>12.2303443335989</v>
       </c>
       <c r="P11" t="n">
-        <v>5.136</v>
+        <v>11.48261901329707</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.847</v>
+        <v>10.85536386780223</v>
       </c>
       <c r="R11" t="n">
-        <v>6.368</v>
+        <v>11.95313723613491</v>
       </c>
       <c r="S11" t="n">
-        <v>5.119</v>
+        <v>10.84002515368181</v>
       </c>
       <c r="T11" t="n">
-        <v>4.968</v>
+        <v>9.835246906070029</v>
       </c>
       <c r="U11" t="n">
-        <v>6.595</v>
+        <v>10.42588485750088</v>
       </c>
       <c r="V11" t="n">
-        <v>5.425</v>
+        <v>9.642474423033779</v>
       </c>
       <c r="W11" t="n">
-        <v>5.379</v>
+        <v>10.08134347039957</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cacna2d1</t>
+          <t>Cacna1f</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENSMUSG00000040118</t>
+          <t>ENSMUSG00000031142</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8027.916</v>
+        <v>2.56913476484481</v>
       </c>
       <c r="D12" t="n">
-        <v>0.239</v>
+        <v>-0.0007403099831444</v>
       </c>
       <c r="E12" t="n">
-        <v>0.16</v>
+        <v>0.0651230397981985</v>
       </c>
       <c r="F12" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.155</v>
-      </c>
+        <v>0.8345241438150039</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cacna2d1</t>
+          <t>Cacna1f</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>12293</v>
+        <v>54652</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1.6e-01</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Cacna2d1
-p=1.6e-01</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>0.8090000000000001</v>
-      </c>
+          <t>Cacna1f
+p=nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>12.839</v>
+        <v>0.7602228431689755</v>
       </c>
       <c r="N12" t="n">
-        <v>12.398</v>
+        <v>3.589653425827785</v>
       </c>
       <c r="O12" t="n">
-        <v>12.786</v>
-      </c>
-      <c r="P12" t="n">
-        <v>12.592</v>
+        <v>-0.8709444363652202</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="Q12" t="n">
-        <v>13.192</v>
+        <v>0.1202575561250095</v>
       </c>
       <c r="R12" t="n">
-        <v>12.854</v>
+        <v>1.030236691523577</v>
       </c>
       <c r="S12" t="n">
-        <v>13.223</v>
+        <v>2.432128326678814</v>
       </c>
       <c r="T12" t="n">
-        <v>13.085</v>
-      </c>
-      <c r="U12" t="n">
-        <v>13.24</v>
+        <v>1.270514541276825</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="V12" t="n">
-        <v>13.054</v>
+        <v>1.043504057891135</v>
       </c>
       <c r="W12" t="n">
-        <v>13.162</v>
+        <v>-0.02770780895861523</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Cacna1c</t>
+          <t>Cacna1a</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENSMUSG00000051331</t>
+          <t>ENSMUSG00000034656</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3778.994</v>
+        <v>62.2381733447555</v>
       </c>
       <c r="D13" t="n">
-        <v>0.037</v>
+        <v>-0.014263372374084</v>
       </c>
       <c r="E13" t="n">
-        <v>0.063</v>
+        <v>0.06670216180673021</v>
       </c>
       <c r="F13" t="n">
-        <v>0.268</v>
+        <v>0.164042660530353</v>
       </c>
       <c r="G13" t="n">
-        <v>0.771</v>
+        <v>0.660347151005693</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cacna1c</t>
+          <t>Cacna1a</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12288</v>
+        <v>12286</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>7.7e-01</t>
+          <t>6.6e-01</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Cacna1c
-p=7.7e-01</t>
+          <t>Cacna1a
+p=6.6e-01</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.113</v>
+        <v>0.1802276915343607</v>
       </c>
       <c r="M13" t="n">
-        <v>12.023</v>
+        <v>5.429196327561048</v>
       </c>
       <c r="N13" t="n">
-        <v>11.831</v>
+        <v>6.851466823756156</v>
       </c>
       <c r="O13" t="n">
-        <v>11.733</v>
+        <v>5.519755459788352</v>
       </c>
       <c r="P13" t="n">
-        <v>11.538</v>
+        <v>5.136406171402276</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.958</v>
+        <v>6.84675656388958</v>
       </c>
       <c r="R13" t="n">
-        <v>11.87</v>
+        <v>6.367794586544354</v>
       </c>
       <c r="S13" t="n">
-        <v>11.789</v>
+        <v>5.119434784267657</v>
       </c>
       <c r="T13" t="n">
-        <v>12.052</v>
+        <v>4.96806829470196</v>
       </c>
       <c r="U13" t="n">
-        <v>11.869</v>
+        <v>6.594767256962179</v>
       </c>
       <c r="V13" t="n">
-        <v>11.939</v>
+        <v>5.42538837258475</v>
       </c>
       <c r="W13" t="n">
-        <v>12.041</v>
+        <v>5.379476121276702</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
+          <t>Cacna2d1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ENSMUSG00000040118</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>8027.91554526451</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.239178976722988</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.160187521861219</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0052508226450369</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.155195862613141</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Cacna2d1</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>12293</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1.6e-01</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Cacna2d1
+p=1.6e-01</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>0.8091198608370656</v>
+      </c>
+      <c r="M14" t="n">
+        <v>12.83887386114992</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12.39752171615315</v>
+      </c>
+      <c r="O14" t="n">
+        <v>12.7858972664486</v>
+      </c>
+      <c r="P14" t="n">
+        <v>12.59212092466375</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>13.19193655480848</v>
+      </c>
+      <c r="R14" t="n">
+        <v>12.85437576356055</v>
+      </c>
+      <c r="S14" t="n">
+        <v>13.22319654927315</v>
+      </c>
+      <c r="T14" t="n">
+        <v>13.08453907472576</v>
+      </c>
+      <c r="U14" t="n">
+        <v>13.23950349318346</v>
+      </c>
+      <c r="V14" t="n">
+        <v>13.0535686919776</v>
+      </c>
+      <c r="W14" t="n">
+        <v>13.16162359074933</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Cacna1c</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ENSMUSG00000051331</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3778.99401785453</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0373008547597143</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0631452106463689</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.268399281700796</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.770838753893913</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Cacna1c</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>12288</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>7.7e-01</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Cacna1c
+p=7.7e-01</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>0.1130364593264023</v>
+      </c>
+      <c r="M15" t="n">
+        <v>12.02274049642891</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11.83093023747767</v>
+      </c>
+      <c r="O15" t="n">
+        <v>11.73301677435571</v>
+      </c>
+      <c r="P15" t="n">
+        <v>11.53848876300241</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>11.95791723680808</v>
+      </c>
+      <c r="R15" t="n">
+        <v>11.86962307468375</v>
+      </c>
+      <c r="S15" t="n">
+        <v>11.7886609680008</v>
+      </c>
+      <c r="T15" t="n">
+        <v>12.05184198950984</v>
+      </c>
+      <c r="U15" t="n">
+        <v>11.86942567825063</v>
+      </c>
+      <c r="V15" t="n">
+        <v>11.93947080080339</v>
+      </c>
+      <c r="W15" t="n">
+        <v>12.04058981571873</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
           <t>Cacnb2</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>ENSMUSG00000057914</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>1389.483</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.139</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.269</v>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="C16" t="n">
+        <v>1389.48308153876</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.138824410984268</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.129506779575993</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0175423111891247</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.26899025285958</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Cacnb2</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="I16" t="n">
         <v>12296</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>2.7e-01</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Cacnb2
 p=2.7e-01</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M14" t="n">
-        <v>10.549</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10.709</v>
-      </c>
-      <c r="O14" t="n">
-        <v>10.476</v>
-      </c>
-      <c r="P14" t="n">
-        <v>10.653</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>10.476</v>
-      </c>
-      <c r="R14" t="n">
-        <v>10.413</v>
-      </c>
-      <c r="S14" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="T14" t="n">
-        <v>10.365</v>
-      </c>
-      <c r="U14" t="n">
-        <v>9.987</v>
-      </c>
-      <c r="V14" t="n">
-        <v>10.353</v>
-      </c>
-      <c r="W14" t="n">
-        <v>10.539</v>
+      <c r="L16" t="n">
+        <v>0.5702634568228475</v>
+      </c>
+      <c r="M16" t="n">
+        <v>10.54898126860625</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10.70859688141342</v>
+      </c>
+      <c r="O16" t="n">
+        <v>10.47567554122998</v>
+      </c>
+      <c r="P16" t="n">
+        <v>10.65319379468767</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>10.47648153634963</v>
+      </c>
+      <c r="R16" t="n">
+        <v>10.4133890462718</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10.18029309877235</v>
+      </c>
+      <c r="T16" t="n">
+        <v>10.36524489730354</v>
+      </c>
+      <c r="U16" t="n">
+        <v>9.986945261419338</v>
+      </c>
+      <c r="V16" t="n">
+        <v>10.35264047652077</v>
+      </c>
+      <c r="W16" t="n">
+        <v>10.53937996943266</v>
       </c>
     </row>
   </sheetData>
